--- a/data/category_matching_viatec.xlsx
+++ b/data/category_matching_viatec.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
   <si>
     <t>Линк категории поставщика</t>
   </si>
@@ -38,6 +38,12 @@
     <t>Категория на моем сайте_UA</t>
   </si>
   <si>
+    <t>Номер_групи</t>
+  </si>
+  <si>
+    <t>Ідентифікатор_підрозділу</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/cameras/0:0;proizvoditel:hikvision</t>
   </si>
   <si>
@@ -86,7 +92,7 @@
     <t>https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua</t>
   </si>
   <si>
-    <t>https://viatec.ua/catalog/kit</t>
+    <t>https://viatec.ua/catalog/komplekti-videonabludenia/0:0</t>
   </si>
   <si>
     <t>https://viatec.ua/catalog/hdd/0:0</t>
@@ -269,52 +275,52 @@
     <t>https://viatec.ua/catalog/access-control-lock/0:0</t>
   </si>
   <si>
+    <t>https://viatec.ua/catalog/access-turnstile/0:0</t>
+  </si>
+  <si>
+    <t>https://viatec.ua/catalog/access-terminal/0:0</t>
+  </si>
+  <si>
+    <t>Терминалы</t>
+  </si>
+  <si>
+    <t>Термінали</t>
+  </si>
+  <si>
+    <t>https://viatec.ua/catalog/access-control-button/0:0</t>
+  </si>
+  <si>
+    <t>Кнопки выхода</t>
+  </si>
+  <si>
+    <t>Кнопки виходу</t>
+  </si>
+  <si>
+    <t>https://viatec.ua/catalog/access-reader/0:0</t>
+  </si>
+  <si>
+    <t>Считыватели</t>
+  </si>
+  <si>
+    <t>Зчитувачі</t>
+  </si>
+  <si>
+    <t>https://viatec.ua/catalog/access-controller/0:0</t>
+  </si>
+  <si>
+    <t>Контроллеры</t>
+  </si>
+  <si>
+    <t>Контролери</t>
+  </si>
+  <si>
+    <t>https://viatec.ua/catalog/access-accessories/0:0</t>
+  </si>
+  <si>
     <t>Комплектующие для контроля доступа</t>
   </si>
   <si>
     <t>Комплектуючі для контролю доступу</t>
-  </si>
-  <si>
-    <t>https://viatec.ua/catalog/access-turnstile/0:0</t>
-  </si>
-  <si>
-    <t>https://viatec.ua/catalog/access-terminal/0:0</t>
-  </si>
-  <si>
-    <t>Терминалы</t>
-  </si>
-  <si>
-    <t>Термінали</t>
-  </si>
-  <si>
-    <t>https://viatec.ua/catalog/access-control-button/0:0</t>
-  </si>
-  <si>
-    <t>Кнопки выхода</t>
-  </si>
-  <si>
-    <t>Кнопки виходу</t>
-  </si>
-  <si>
-    <t>https://viatec.ua/catalog/access-reader/0:0</t>
-  </si>
-  <si>
-    <t>Считыватели</t>
-  </si>
-  <si>
-    <t>Зчитувачі</t>
-  </si>
-  <si>
-    <t>https://viatec.ua/catalog/access-controller/0:0</t>
-  </si>
-  <si>
-    <t>Контроллеры</t>
-  </si>
-  <si>
-    <t>Контролери</t>
-  </si>
-  <si>
-    <t>https://viatec.ua/catalog/access-accessories/0:0</t>
   </si>
   <si>
     <t>https://viatec.ua/catalog/switches/0:0</t>
@@ -444,7 +450,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,13 +469,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -934,152 +933,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1088,11 +1087,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1412,796 +1410,1214 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A70"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="87.7142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="80.1904761904762" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.1428571428571" style="2" customWidth="1"/>
     <col min="3" max="3" width="70.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="23.4571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.9142857142857" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E2" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E3" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E4" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E5" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E6" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E7" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E8" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E9" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E10" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8950011</v>
+      </c>
+      <c r="E11" s="4">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8950007</v>
+      </c>
+      <c r="E12" s="4">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8950007</v>
+      </c>
+      <c r="E13" s="4">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <v>8950007</v>
+      </c>
+      <c r="E14" s="4">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6">
+        <v>83889367</v>
+      </c>
+      <c r="E15" s="6">
+        <v>70704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4321341</v>
+      </c>
+      <c r="E16" s="6">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4321341</v>
+      </c>
+      <c r="E17" s="6">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="6">
+        <v>4321341</v>
+      </c>
+      <c r="E18" s="6">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4321341</v>
+      </c>
+      <c r="E19" s="6">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4328775</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6">
+        <v>90718784</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6">
+        <v>90718784</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="6">
+        <v>90718784</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="6">
+        <v>90718784</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4339717</v>
+      </c>
+      <c r="E32" s="6">
+        <v>50906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="6">
+        <v>72575633</v>
+      </c>
+      <c r="E33" s="6">
+        <v>153502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6">
+        <v>90906797</v>
+      </c>
+      <c r="E34" s="6">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="6">
+        <v>90906797</v>
+      </c>
+      <c r="E35" s="6">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="6">
+        <v>90906797</v>
+      </c>
+      <c r="E36" s="6">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="6">
+        <v>90906797</v>
+      </c>
+      <c r="E37" s="6">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="6">
+        <v>139094704</v>
+      </c>
+      <c r="E38" s="4">
+        <v>50906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="6">
+        <v>139094708</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="6">
+        <v>139094708</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="6">
+        <v>90945152</v>
+      </c>
+      <c r="E41" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="6">
+        <v>90945152</v>
+      </c>
+      <c r="E42" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="6">
+        <v>90945152</v>
+      </c>
+      <c r="E43" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="6">
+        <v>90945152</v>
+      </c>
+      <c r="E44" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="6">
+        <v>90945152</v>
+      </c>
+      <c r="E45" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="6">
+        <v>90945169</v>
+      </c>
+      <c r="E46" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="6">
+        <v>90945169</v>
+      </c>
+      <c r="E47" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="6">
+        <v>90945169</v>
+      </c>
+      <c r="E48" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="6">
+        <v>90945169</v>
+      </c>
+      <c r="E49" s="6">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="6">
+        <v>90997501</v>
+      </c>
+      <c r="E50" s="6">
+        <v>301010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="6">
+        <v>90997501</v>
+      </c>
+      <c r="E51" s="6">
+        <v>301010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="6">
+        <v>90997501</v>
+      </c>
+      <c r="E52" s="6">
+        <v>301010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="6">
+        <v>127628166</v>
+      </c>
+      <c r="E53" s="6">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="6">
+        <v>127628170</v>
+      </c>
+      <c r="E54" s="6">
+        <v>302308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="D55" s="6">
+        <v>127628173</v>
+      </c>
+      <c r="E55" s="6">
+        <v>301311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="6">
+        <v>127628176</v>
+      </c>
+      <c r="E56" s="6">
+        <v>301312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="B57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="6">
+        <v>16703618</v>
+      </c>
+      <c r="E57" s="6">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="B58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="6">
+        <v>23295147</v>
+      </c>
+      <c r="E58" s="6">
+        <v>71903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="6">
+        <v>90997677</v>
+      </c>
+      <c r="E59" s="6">
+        <v>71902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="6">
+        <v>90997694</v>
+      </c>
+      <c r="E60" s="6">
+        <v>71902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="B61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="6">
+        <v>22818554</v>
+      </c>
+      <c r="E61" s="6">
+        <v>153501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="B62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="6">
+        <v>127351912</v>
+      </c>
+      <c r="E62" s="6">
+        <v>14191106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="B63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="6">
+        <v>127351948</v>
+      </c>
+      <c r="E63" s="6">
+        <v>14191106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="B64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="6">
+        <v>127351950</v>
+      </c>
+      <c r="E64" s="6">
+        <v>14191103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="B65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="6">
+        <v>127351973</v>
+      </c>
+      <c r="E65" s="6">
+        <v>5280501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="B66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="6">
+        <v>144038788</v>
+      </c>
+      <c r="E66" s="6">
+        <v>5280501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="6">
+        <v>144038804</v>
+      </c>
+      <c r="E67" s="6">
+        <v>5140401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="6">
+        <v>144038790</v>
+      </c>
+      <c r="E68" s="6">
+        <v>5140401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="6">
+        <v>144038805</v>
+      </c>
+      <c r="E69" s="6">
+        <v>341632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="B70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="6">
+        <v>144038807</v>
+      </c>
+      <c r="E70" s="6">
+        <v>500901</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2217,7 +2633,7 @@
     <hyperlink ref="A11" r:id="rId10" display="https://viatec.ua/catalog/termal-ptz/0:0" tooltip="https://viatec.ua/catalog/termal-ptz/0:0"/>
     <hyperlink ref="A12" r:id="rId11" display="https://viatec.ua/catalog/dvr/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/dvr/0:0;proizvoditel:hikvision"/>
     <hyperlink ref="A13" r:id="rId12" display="https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://viatec.ua/catalog/kit" tooltip="https://viatec.ua/catalog/kit"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://viatec.ua/catalog/komplekti-videonabludenia/0:0" tooltip="https://viatec.ua/catalog/komplekti-videonabludenia/0:0"/>
     <hyperlink ref="A15" r:id="rId14" display="https://viatec.ua/catalog/hdd/0:0" tooltip="https://viatec.ua/catalog/hdd/0:0"/>
     <hyperlink ref="A16" r:id="rId15" display="https://viatec.ua/catalog/bracket/0:0" tooltip="https://viatec.ua/catalog/bracket/0:0"/>
     <hyperlink ref="A17" r:id="rId16" display="https://viatec.ua/catalog/microphone/0:0" tooltip="https://viatec.ua/catalog/microphone/0:0"/>

--- a/data/category_matching_viatec.xlsx
+++ b/data/category_matching_viatec.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
+  <si>
+    <t>№</t>
+  </si>
   <si>
     <t>Линк категории поставщика</t>
   </si>
@@ -1078,11 +1081,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,1286 +1419,1497 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="80.1904761904762" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.4571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.9142857142857" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="80.1904761904762" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.1428571428571" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.4285714285714" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.4571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.9142857142857" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>8950011</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="6">
         <v>301105</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="6">
+        <v>8950011</v>
+      </c>
+      <c r="F3" s="6">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8950011</v>
+      </c>
+      <c r="F4" s="6">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8950011</v>
+      </c>
+      <c r="F5" s="6">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8950011</v>
+      </c>
+      <c r="F6" s="6">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
         <v>8950011</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F7" s="6">
         <v>301105</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8950011</v>
+      </c>
+      <c r="F8" s="6">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8950011</v>
+      </c>
+      <c r="F9" s="6">
+        <v>301105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>8950011</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F10" s="6">
         <v>301105</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
         <v>8950011</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F11" s="6">
         <v>301105</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>8950011</v>
-      </c>
-      <c r="E6" s="4">
-        <v>301105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8950007</v>
+      </c>
+      <c r="F12" s="6">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8950011</v>
-      </c>
-      <c r="E7" s="4">
-        <v>301105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8950007</v>
+      </c>
+      <c r="F13" s="6">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>8950011</v>
-      </c>
-      <c r="E8" s="4">
-        <v>301105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8950007</v>
+      </c>
+      <c r="F14" s="6">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8950011</v>
-      </c>
-      <c r="E9" s="4">
-        <v>301105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8">
+        <v>83889367</v>
+      </c>
+      <c r="F15" s="8">
+        <v>70704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8950011</v>
-      </c>
-      <c r="E10" s="4">
-        <v>301105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4321341</v>
+      </c>
+      <c r="F16" s="8">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8950011</v>
-      </c>
-      <c r="E11" s="4">
-        <v>301105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4321341</v>
+      </c>
+      <c r="F17" s="8">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4321341</v>
+      </c>
+      <c r="F18" s="8">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4321341</v>
+      </c>
+      <c r="F19" s="8">
+        <v>301109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
-        <v>8950007</v>
-      </c>
-      <c r="E12" s="4">
-        <v>301101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8950007</v>
-      </c>
-      <c r="E13" s="4">
-        <v>301101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8950007</v>
-      </c>
-      <c r="E14" s="4">
-        <v>301101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="B22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="D15" s="6">
-        <v>83889367</v>
-      </c>
-      <c r="E15" s="6">
-        <v>70704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4328775</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="D16" s="6">
-        <v>4321341</v>
-      </c>
-      <c r="E16" s="6">
-        <v>301109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="8">
+        <v>90718784</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4321341</v>
-      </c>
-      <c r="E17" s="6">
-        <v>301109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="8">
+        <v>90718784</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4321341</v>
-      </c>
-      <c r="E18" s="6">
-        <v>301109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="8">
+        <v>90718784</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4321341</v>
-      </c>
-      <c r="E19" s="6">
-        <v>301109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="8">
+        <v>90718784</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4339717</v>
+      </c>
+      <c r="F32" s="8">
+        <v>50906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="8">
+        <v>72575633</v>
+      </c>
+      <c r="F33" s="8">
+        <v>153502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="D20" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="B34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="8">
+        <v>90906797</v>
+      </c>
+      <c r="F34" s="8">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="B35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="8">
+        <v>90906797</v>
+      </c>
+      <c r="F35" s="8">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="B36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="8">
+        <v>90906797</v>
+      </c>
+      <c r="F36" s="8">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E23" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="B37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="8">
+        <v>90906797</v>
+      </c>
+      <c r="F37" s="8">
+        <v>153729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="B38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8">
+        <v>139094704</v>
+      </c>
+      <c r="F38" s="6">
+        <v>50906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="8">
+        <v>139094708</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="8">
+        <v>139094708</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4328775</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="B41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="8">
+        <v>90945152</v>
+      </c>
+      <c r="F41" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="8">
+        <v>90945152</v>
+      </c>
+      <c r="F42" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="8">
+        <v>90945152</v>
+      </c>
+      <c r="F43" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="D28" s="6">
-        <v>90718784</v>
-      </c>
-      <c r="E28" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="B44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="8">
+        <v>90945152</v>
+      </c>
+      <c r="F44" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6">
-        <v>90718784</v>
-      </c>
-      <c r="E29" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="B45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="8">
+        <v>90945152</v>
+      </c>
+      <c r="F45" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6">
-        <v>90718784</v>
-      </c>
-      <c r="E30" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="B46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="8">
+        <v>90945169</v>
+      </c>
+      <c r="F46" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6">
-        <v>90718784</v>
-      </c>
-      <c r="E31" s="6">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="B47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="8">
+        <v>90945169</v>
+      </c>
+      <c r="F47" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="8">
+        <v>90945169</v>
+      </c>
+      <c r="F48" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="8">
+        <v>90945169</v>
+      </c>
+      <c r="F49" s="8">
+        <v>302306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="D32" s="6">
-        <v>4339717</v>
-      </c>
-      <c r="E32" s="6">
-        <v>50906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="B50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="8">
+        <v>90997501</v>
+      </c>
+      <c r="F50" s="8">
+        <v>301010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="8">
+        <v>90997501</v>
+      </c>
+      <c r="F51" s="8">
+        <v>301010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="8">
+        <v>90997501</v>
+      </c>
+      <c r="F52" s="8">
+        <v>301010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="D33" s="6">
-        <v>72575633</v>
-      </c>
-      <c r="E33" s="6">
-        <v>153502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="B53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="8">
+        <v>127628166</v>
+      </c>
+      <c r="F53" s="8">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="8">
+        <v>127628170</v>
+      </c>
+      <c r="F54" s="8">
+        <v>302308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B55" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="8">
+        <v>127628173</v>
+      </c>
+      <c r="F55" s="8">
+        <v>301311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="D34" s="6">
-        <v>90906797</v>
-      </c>
-      <c r="E34" s="6">
-        <v>153729</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="B56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="8">
+        <v>127628176</v>
+      </c>
+      <c r="F56" s="8">
+        <v>301312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="6">
-        <v>90906797</v>
-      </c>
-      <c r="E35" s="6">
-        <v>153729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="B57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="8">
+        <v>16703618</v>
+      </c>
+      <c r="F57" s="8">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="6">
-        <v>90906797</v>
-      </c>
-      <c r="E36" s="6">
-        <v>153729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="B58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="8">
+        <v>23295147</v>
+      </c>
+      <c r="F58" s="8">
+        <v>71903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="6">
-        <v>90906797</v>
-      </c>
-      <c r="E37" s="6">
-        <v>153729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="B59" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="8">
+        <v>90997677</v>
+      </c>
+      <c r="F59" s="8">
+        <v>71902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="8">
+        <v>90997694</v>
+      </c>
+      <c r="F60" s="8">
+        <v>71902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="8">
+        <v>22818554</v>
+      </c>
+      <c r="F61" s="8">
+        <v>153501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="D38" s="6">
-        <v>139094704</v>
-      </c>
-      <c r="E38" s="4">
-        <v>50906</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="B62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="8">
+        <v>127351912</v>
+      </c>
+      <c r="F62" s="8">
+        <v>14191106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="8">
+        <v>127351948</v>
+      </c>
+      <c r="F63" s="8">
+        <v>14191106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B64" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="8">
+        <v>127351950</v>
+      </c>
+      <c r="F64" s="8">
+        <v>14191103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="D39" s="6">
-        <v>139094708</v>
-      </c>
-      <c r="E39" s="6">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="B65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="8">
+        <v>127351973</v>
+      </c>
+      <c r="F65" s="8">
+        <v>5280501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="6">
-        <v>139094708</v>
-      </c>
-      <c r="E40" s="6">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="B66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="8">
+        <v>144038788</v>
+      </c>
+      <c r="F66" s="8">
+        <v>5280501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="8">
+        <v>144038804</v>
+      </c>
+      <c r="F67" s="8">
+        <v>5140401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="B68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="8">
+        <v>144038790</v>
+      </c>
+      <c r="F68" s="8">
+        <v>5140401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="D41" s="6">
-        <v>90945152</v>
-      </c>
-      <c r="E41" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="B69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="8">
+        <v>144038805</v>
+      </c>
+      <c r="F69" s="8">
+        <v>341632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="6">
-        <v>90945152</v>
-      </c>
-      <c r="E42" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="6">
-        <v>90945152</v>
-      </c>
-      <c r="E43" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="6">
-        <v>90945152</v>
-      </c>
-      <c r="E44" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="6">
-        <v>90945152</v>
-      </c>
-      <c r="E45" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="6">
-        <v>90945169</v>
-      </c>
-      <c r="E46" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="6">
-        <v>90945169</v>
-      </c>
-      <c r="E47" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="6">
-        <v>90945169</v>
-      </c>
-      <c r="E48" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="6">
-        <v>90945169</v>
-      </c>
-      <c r="E49" s="6">
-        <v>302306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="6">
-        <v>90997501</v>
-      </c>
-      <c r="E50" s="6">
-        <v>301010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="6">
-        <v>90997501</v>
-      </c>
-      <c r="E51" s="6">
-        <v>301010</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="6">
-        <v>90997501</v>
-      </c>
-      <c r="E52" s="6">
-        <v>301010</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="6">
-        <v>127628166</v>
-      </c>
-      <c r="E53" s="6">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="6">
-        <v>127628170</v>
-      </c>
-      <c r="E54" s="6">
-        <v>302308</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="6">
-        <v>127628173</v>
-      </c>
-      <c r="E55" s="6">
-        <v>301311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="6">
-        <v>127628176</v>
-      </c>
-      <c r="E56" s="6">
-        <v>301312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="6">
-        <v>16703618</v>
-      </c>
-      <c r="E57" s="6">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="6">
-        <v>23295147</v>
-      </c>
-      <c r="E58" s="6">
-        <v>71903</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="6">
-        <v>90997677</v>
-      </c>
-      <c r="E59" s="6">
-        <v>71902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="6">
-        <v>90997694</v>
-      </c>
-      <c r="E60" s="6">
-        <v>71902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="6">
-        <v>22818554</v>
-      </c>
-      <c r="E61" s="6">
-        <v>153501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="6">
-        <v>127351912</v>
-      </c>
-      <c r="E62" s="6">
-        <v>14191106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" s="6">
-        <v>127351948</v>
-      </c>
-      <c r="E63" s="6">
-        <v>14191106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="6">
-        <v>127351950</v>
-      </c>
-      <c r="E64" s="6">
-        <v>14191103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="6">
-        <v>127351973</v>
-      </c>
-      <c r="E65" s="6">
-        <v>5280501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="6">
-        <v>144038788</v>
-      </c>
-      <c r="E66" s="6">
-        <v>5280501</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="6">
-        <v>144038804</v>
-      </c>
-      <c r="E67" s="6">
-        <v>5140401</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="6">
-        <v>144038790</v>
-      </c>
-      <c r="E68" s="6">
-        <v>5140401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="6">
-        <v>144038805</v>
-      </c>
-      <c r="E69" s="6">
-        <v>341632</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="8">
         <v>144038807</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F70" s="8">
         <v>500901</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="7"/>
+    <row r="71" spans="5:5">
+      <c r="E71" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://viatec.ua/catalog/ptz/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/ptz/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://viatec.ua/catalog/ptz/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/ptz/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:ezviz" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:ezviz"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:imou" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:imou"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://viatec.ua/catalog/solution-traffic/0:0" tooltip="https://viatec.ua/catalog/solution-traffic/0:0"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://viatec.ua/catalog/solution-mobile/0:0" tooltip="https://viatec.ua/catalog/solution-mobile/0:0"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://viatec.ua/catalog/termal-cameras/0:0" tooltip="https://viatec.ua/catalog/termal-cameras/0:0"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://viatec.ua/catalog/termal-ptz/0:0" tooltip="https://viatec.ua/catalog/termal-ptz/0:0"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://viatec.ua/catalog/dvr/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/dvr/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://viatec.ua/catalog/komplekti-videonabludenia/0:0" tooltip="https://viatec.ua/catalog/komplekti-videonabludenia/0:0"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://viatec.ua/catalog/hdd/0:0" tooltip="https://viatec.ua/catalog/hdd/0:0"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://viatec.ua/catalog/bracket/0:0" tooltip="https://viatec.ua/catalog/bracket/0:0"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://viatec.ua/catalog/microphone/0:0" tooltip="https://viatec.ua/catalog/microphone/0:0"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://viatec.ua/catalog/keyboard/0:0" tooltip="https://viatec.ua/catalog/keyboard/0:0"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://viatec.ua/catalog/CCTV-IR/0:0" tooltip="https://viatec.ua/catalog/CCTV-IR/0:0"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:1199" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:1199"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:neolight" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:neolight"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:1199" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:1199"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:neolight" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:neolight"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:1199" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:1199"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:neolight" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:neolight"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://viatec.ua/catalog/intercom/0:0" tooltip="https://viatec.ua/catalog/intercom/0:0"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://viatec.ua/catalog/intercom-accessories/0:0" tooltip="https://viatec.ua/catalog/intercom-accessories/0:0"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://viatec.ua/catalog/termal-handheld/0:0" tooltip="https://viatec.ua/catalog/termal-handheld/0:0"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://viatec.ua/catalog/pricili/0:0" tooltip="https://viatec.ua/catalog/pricili/0:0"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://viatec.ua/catalog/aksesuari-dlia-pnb/0:0" tooltip="https://viatec.ua/catalog/aksesuari-dlia-pnb/0:0"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://viatec.ua/catalog/pribori-nichnogo-bachennia/0:0" tooltip="https://viatec.ua/catalog/pribori-nichnogo-bachennia/0:0"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://viatec.ua/catalog/radiostancii/0:0" tooltip="https://viatec.ua/catalog/radiostancii/0:0"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://viatec.ua/catalog/kvadrokopteri/0:0" tooltip="https://viatec.ua/catalog/kvadrokopteri/0:0"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://viatec.ua/catalog/akumuliatori-droniv/0:0" tooltip="https://viatec.ua/catalog/akumuliatori-droniv/0:0"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A44" r:id="rId41" display="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A45" r:id="rId43" display="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:dahua"/>
-    <hyperlink ref="A46" r:id="rId44" display="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A47" r:id="rId45" display="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A48" r:id="rId46" display="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A49" r:id="rId47" display="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:hikvision"/>
-    <hyperlink ref="A50" r:id="rId48" display="https://viatec.ua/catalog/hotel-lock/0:0" tooltip="https://viatec.ua/catalog/hotel-lock/0:0"/>
-    <hyperlink ref="A51" r:id="rId49" display="https://viatec.ua/catalog/access-control-lock/0:0" tooltip="https://viatec.ua/catalog/access-control-lock/0:0"/>
-    <hyperlink ref="A52" r:id="rId50" display="https://viatec.ua/catalog/access-turnstile/0:0" tooltip="https://viatec.ua/catalog/access-turnstile/0:0"/>
-    <hyperlink ref="A53" r:id="rId51" display="https://viatec.ua/catalog/access-terminal/0:0" tooltip="https://viatec.ua/catalog/access-terminal/0:0"/>
-    <hyperlink ref="A54" r:id="rId52" display="https://viatec.ua/catalog/access-control-button/0:0" tooltip="https://viatec.ua/catalog/access-control-button/0:0"/>
-    <hyperlink ref="A55" r:id="rId53" display="https://viatec.ua/catalog/access-reader/0:0" tooltip="https://viatec.ua/catalog/access-reader/0:0"/>
-    <hyperlink ref="A56" r:id="rId54" display="https://viatec.ua/catalog/access-controller/0:0" tooltip="https://viatec.ua/catalog/access-controller/0:0"/>
-    <hyperlink ref="A57" r:id="rId55" display="https://viatec.ua/catalog/access-accessories/0:0" tooltip="https://viatec.ua/catalog/access-accessories/0:0"/>
-    <hyperlink ref="A58" r:id="rId56" display="https://viatec.ua/catalog/switches/0:0" tooltip="https://viatec.ua/catalog/switches/0:0"/>
-    <hyperlink ref="A59" r:id="rId57" display="https://viatec.ua/catalog/network-routers/0:0" tooltip="https://viatec.ua/catalog/network-routers/0:0"/>
-    <hyperlink ref="A60" r:id="rId58" display="https://viatec.ua/catalog/network-ap/0:0" tooltip="https://viatec.ua/catalog/network-ap/0:0"/>
-    <hyperlink ref="A61" r:id="rId59" display="https://viatec.ua/catalog/for-home/0:0;proizvoditel:imou,meross" tooltip="https://viatec.ua/catalog/for-home/0:0;proizvoditel:imou,meross"/>
-    <hyperlink ref="A62" r:id="rId60" display="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-12-24v/0:0" tooltip="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-12-24v/0:0"/>
-    <hyperlink ref="A63" r:id="rId61" display="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-220v/0:0" tooltip="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-220v/0:0"/>
-    <hyperlink ref="A64" r:id="rId62" display="https://viatec.ua/catalog/equipment-power-supply/0:0" tooltip="https://viatec.ua/catalog/equipment-power-supply/0:0"/>
-    <hyperlink ref="A65" r:id="rId63" display="https://viatec.ua/catalog/equipment-batteries/0:0" tooltip="https://viatec.ua/catalog/equipment-batteries/0:0"/>
-    <hyperlink ref="A66" r:id="rId64" display="https://viatec.ua/catalog/litievi-akumuliatori/0:0" tooltip="https://viatec.ua/catalog/litievi-akumuliatori/0:0"/>
-    <hyperlink ref="A67" r:id="rId65" display="https://viatec.ua/catalog/invertori/0:0" tooltip="https://viatec.ua/catalog/invertori/0:0"/>
-    <hyperlink ref="A68" r:id="rId66" display="https://viatec.ua/catalog/sistemi-nakopichennia-energii/0:0" tooltip="https://viatec.ua/catalog/sistemi-nakopichennia-energii/0:0"/>
-    <hyperlink ref="A69" r:id="rId67" display="https://viatec.ua/catalog/avtonomni-sistemi-zhivlennia/0:0" tooltip="https://viatec.ua/catalog/avtonomni-sistemi-zhivlennia/0:0"/>
-    <hyperlink ref="A70" r:id="rId68" display="https://viatec.ua/catalog/zariadnie-ustroistva/0:0" tooltip="https://viatec.ua/catalog/zariadnie-ustroistva/0:0"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://viatec.ua/catalog/ptz/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/ptz/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://viatec.ua/catalog/ptz/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/ptz/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:ezviz" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:ezviz"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://viatec.ua/catalog/cameras/0:0;proizvoditel:imou" tooltip="https://viatec.ua/catalog/cameras/0:0;proizvoditel:imou"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://viatec.ua/catalog/solution-traffic/0:0" tooltip="https://viatec.ua/catalog/solution-traffic/0:0"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://viatec.ua/catalog/solution-mobile/0:0" tooltip="https://viatec.ua/catalog/solution-mobile/0:0"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://viatec.ua/catalog/termal-cameras/0:0" tooltip="https://viatec.ua/catalog/termal-cameras/0:0"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://viatec.ua/catalog/termal-ptz/0:0" tooltip="https://viatec.ua/catalog/termal-ptz/0:0"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://viatec.ua/catalog/dvr/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/dvr/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://viatec.ua/catalog/komplekti-videonabludenia/0:0" tooltip="https://viatec.ua/catalog/komplekti-videonabludenia/0:0"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://viatec.ua/catalog/hdd/0:0" tooltip="https://viatec.ua/catalog/hdd/0:0"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://viatec.ua/catalog/bracket/0:0" tooltip="https://viatec.ua/catalog/bracket/0:0"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://viatec.ua/catalog/microphone/0:0" tooltip="https://viatec.ua/catalog/microphone/0:0"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://viatec.ua/catalog/keyboard/0:0" tooltip="https://viatec.ua/catalog/keyboard/0:0"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://viatec.ua/catalog/CCTV-IR/0:0" tooltip="https://viatec.ua/catalog/CCTV-IR/0:0"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:1199" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:1199"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://viatec.ua/catalog/vth/0:0;proizvoditel:neolight" tooltip="https://viatec.ua/catalog/vth/0:0;proizvoditel:neolight"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:1199" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:1199"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:neolight" tooltip="https://viatec.ua/catalog/intercom-kits/0:0;proizvoditel:neolight"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:1199" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:1199"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://viatec.ua/catalog/vto/0:0;proizvoditel:neolight" tooltip="https://viatec.ua/catalog/vto/0:0;proizvoditel:neolight"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://viatec.ua/catalog/intercom/0:0" tooltip="https://viatec.ua/catalog/intercom/0:0"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://viatec.ua/catalog/intercom-accessories/0:0" tooltip="https://viatec.ua/catalog/intercom-accessories/0:0"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://viatec.ua/catalog/termal-handheld/0:0" tooltip="https://viatec.ua/catalog/termal-handheld/0:0"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://viatec.ua/catalog/pricili/0:0" tooltip="https://viatec.ua/catalog/pricili/0:0"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://viatec.ua/catalog/aksesuari-dlia-pnb/0:0" tooltip="https://viatec.ua/catalog/aksesuari-dlia-pnb/0:0"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://viatec.ua/catalog/pribori-nichnogo-bachennia/0:0" tooltip="https://viatec.ua/catalog/pribori-nichnogo-bachennia/0:0"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://viatec.ua/catalog/radiostancii/0:0" tooltip="https://viatec.ua/catalog/radiostancii/0:0"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://viatec.ua/catalog/kvadrokopteri/0:0" tooltip="https://viatec.ua/catalog/kvadrokopteri/0:0"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://viatec.ua/catalog/akumuliatori-droniv/0:0" tooltip="https://viatec.ua/catalog/akumuliatori-droniv/0:0"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B44" r:id="rId41" display="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B45" r:id="rId43" display="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:dahua" tooltip="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:dahua"/>
+    <hyperlink ref="B46" r:id="rId44" display="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-ppk/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B47" r:id="rId45" display="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B48" r:id="rId46" display="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-detector/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B49" r:id="rId47" display="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:hikvision" tooltip="https://viatec.ua/catalog/alarm-siren/0:0;proizvoditel:hikvision"/>
+    <hyperlink ref="B50" r:id="rId48" display="https://viatec.ua/catalog/hotel-lock/0:0" tooltip="https://viatec.ua/catalog/hotel-lock/0:0"/>
+    <hyperlink ref="B51" r:id="rId49" display="https://viatec.ua/catalog/access-control-lock/0:0" tooltip="https://viatec.ua/catalog/access-control-lock/0:0"/>
+    <hyperlink ref="B52" r:id="rId50" display="https://viatec.ua/catalog/access-turnstile/0:0" tooltip="https://viatec.ua/catalog/access-turnstile/0:0"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://viatec.ua/catalog/access-terminal/0:0" tooltip="https://viatec.ua/catalog/access-terminal/0:0"/>
+    <hyperlink ref="B54" r:id="rId52" display="https://viatec.ua/catalog/access-control-button/0:0" tooltip="https://viatec.ua/catalog/access-control-button/0:0"/>
+    <hyperlink ref="B55" r:id="rId53" display="https://viatec.ua/catalog/access-reader/0:0" tooltip="https://viatec.ua/catalog/access-reader/0:0"/>
+    <hyperlink ref="B56" r:id="rId54" display="https://viatec.ua/catalog/access-controller/0:0" tooltip="https://viatec.ua/catalog/access-controller/0:0"/>
+    <hyperlink ref="B57" r:id="rId55" display="https://viatec.ua/catalog/access-accessories/0:0" tooltip="https://viatec.ua/catalog/access-accessories/0:0"/>
+    <hyperlink ref="B58" r:id="rId56" display="https://viatec.ua/catalog/switches/0:0" tooltip="https://viatec.ua/catalog/switches/0:0"/>
+    <hyperlink ref="B59" r:id="rId57" display="https://viatec.ua/catalog/network-routers/0:0" tooltip="https://viatec.ua/catalog/network-routers/0:0"/>
+    <hyperlink ref="B60" r:id="rId58" display="https://viatec.ua/catalog/network-ap/0:0" tooltip="https://viatec.ua/catalog/network-ap/0:0"/>
+    <hyperlink ref="B61" r:id="rId59" display="https://viatec.ua/catalog/for-home/0:0;proizvoditel:imou,meross" tooltip="https://viatec.ua/catalog/for-home/0:0;proizvoditel:imou,meross"/>
+    <hyperlink ref="B62" r:id="rId60" display="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-12-24v/0:0" tooltip="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-12-24v/0:0"/>
+    <hyperlink ref="B63" r:id="rId61" display="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-220v/0:0" tooltip="https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-220v/0:0"/>
+    <hyperlink ref="B64" r:id="rId62" display="https://viatec.ua/catalog/equipment-power-supply/0:0" tooltip="https://viatec.ua/catalog/equipment-power-supply/0:0"/>
+    <hyperlink ref="B65" r:id="rId63" display="https://viatec.ua/catalog/equipment-batteries/0:0" tooltip="https://viatec.ua/catalog/equipment-batteries/0:0"/>
+    <hyperlink ref="B66" r:id="rId64" display="https://viatec.ua/catalog/litievi-akumuliatori/0:0" tooltip="https://viatec.ua/catalog/litievi-akumuliatori/0:0"/>
+    <hyperlink ref="B67" r:id="rId65" display="https://viatec.ua/catalog/invertori/0:0" tooltip="https://viatec.ua/catalog/invertori/0:0"/>
+    <hyperlink ref="B68" r:id="rId66" display="https://viatec.ua/catalog/sistemi-nakopichennia-energii/0:0" tooltip="https://viatec.ua/catalog/sistemi-nakopichennia-energii/0:0"/>
+    <hyperlink ref="B69" r:id="rId67" display="https://viatec.ua/catalog/avtonomni-sistemi-zhivlennia/0:0" tooltip="https://viatec.ua/catalog/avtonomni-sistemi-zhivlennia/0:0"/>
+    <hyperlink ref="B70" r:id="rId68" display="https://viatec.ua/catalog/zariadnie-ustroistva/0:0" tooltip="https://viatec.ua/catalog/zariadnie-ustroistva/0:0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/category_matching_viatec.xlsx
+++ b/data/category_matching_viatec.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
   <si>
     <t>№</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Ідентифікатор_підрозділу</t>
   </si>
   <si>
+    <t>Посилання_підрозділу</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/cameras/0:0;proizvoditel:hikvision</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>Відеокамери для відеоспостереження</t>
   </si>
   <si>
+    <t>https://prom.ua/Kamery-videonablyudeniya</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/ptz/0:0;proizvoditel:hikvision</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>Відеореєстратори для відеоспостереження</t>
   </si>
   <si>
+    <t>https://prom.ua/Videoregistratory</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/dvr/0:0;proizvoditel:dahua</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
     <t>Накопичувачі для відеоспостереження</t>
   </si>
   <si>
+    <t>https://prom.ua/Zhestkie-diski</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/bracket/0:0</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t>Комплектуючі для відеоспостереження</t>
   </si>
   <si>
+    <t>https://prom.ua/Komplektuyuschie-dlya-sistem-videonablyudeniya-obschee</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/microphone/0:0</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
     <t>Відеодомофони</t>
   </si>
   <si>
+    <t>https://prom.ua/Domofony-videodomofony</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/vth/0:0;proizvoditel:dahua</t>
   </si>
   <si>
@@ -182,6 +200,9 @@
     <t>Переговорні пристрої</t>
   </si>
   <si>
+    <t>https://prom.ua/Peregovornye-ustrojstva</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/intercom-accessories/0:0</t>
   </si>
   <si>
@@ -191,6 +212,9 @@
     <t>Комплектуючі для домофонів</t>
   </si>
   <si>
+    <t>https://prom.ua/Aksessuary-dlya-domofonnogo</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/termal-handheld/0:0</t>
   </si>
   <si>
@@ -200,6 +224,9 @@
     <t>Тепловізори</t>
   </si>
   <si>
+    <t>https://prom.ua/Takticheskie-teplovizory-</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/pricili/0:0</t>
   </si>
   <si>
@@ -227,6 +254,9 @@
     <t>Дрони</t>
   </si>
   <si>
+    <t>https://prom.ua/Kvadrokoptery</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/akumuliatori-droniv/0:0</t>
   </si>
   <si>
@@ -239,6 +269,9 @@
     <t>Сигналізація Dahua Technology</t>
   </si>
   <si>
+    <t>https://prom.ua/Ohrannye-sistemy-i-signalizatsii</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/alarm-key/0:0;proizvoditel:dahua</t>
   </si>
   <si>
@@ -275,6 +308,9 @@
     <t>Замки и турнікети</t>
   </si>
   <si>
+    <t>https://prom.ua/Mehanicheskie-zamki</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/access-control-lock/0:0</t>
   </si>
   <si>
@@ -290,6 +326,9 @@
     <t>Термінали</t>
   </si>
   <si>
+    <t>https://prom.ua/Sistemy-kontrolya-dostupa</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/access-control-button/0:0</t>
   </si>
   <si>
@@ -299,6 +338,9 @@
     <t>Кнопки виходу</t>
   </si>
   <si>
+    <t>https://prom.ua/Trevozhnye-knopki-i-knopki-vyhoda</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/access-reader/0:0</t>
   </si>
   <si>
@@ -308,6 +350,9 @@
     <t>Зчитувачі</t>
   </si>
   <si>
+    <t>https://prom.ua/Schityvateli</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/access-controller/0:0</t>
   </si>
   <si>
@@ -317,6 +362,9 @@
     <t>Контролери</t>
   </si>
   <si>
+    <t>https://prom.ua/Kontrollery</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/access-accessories/0:0</t>
   </si>
   <si>
@@ -335,6 +383,9 @@
     <t>Комутатори</t>
   </si>
   <si>
+    <t>https://prom.ua/Kommutatory</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/network-routers/0:0</t>
   </si>
   <si>
@@ -344,6 +395,9 @@
     <t>Маршрутизатори</t>
   </si>
   <si>
+    <t>https://prom.ua/Routeryi</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/network-ap/0:0</t>
   </si>
   <si>
@@ -362,6 +416,9 @@
     <t>Обладнання для системи Розумний будинок</t>
   </si>
   <si>
+    <t>https://prom.ua/Sovremennyj-dom-obschee</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-12-24v/0:0</t>
   </si>
   <si>
@@ -371,6 +428,9 @@
     <t>Джерела безперебійного живлення 12-24В</t>
   </si>
   <si>
+    <t>https://prom.ua/Istochnik-besperebojnogo-pitaniya-ibp</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/istochniki-bespereboinogo-pitania-220v/0:0</t>
   </si>
   <si>
@@ -389,6 +449,9 @@
     <t>Блоки живлення</t>
   </si>
   <si>
+    <t>https://prom.ua/Promyshlennye-istochniki-pitaniya</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/equipment-batteries/0:0</t>
   </si>
   <si>
@@ -398,6 +461,9 @@
     <t>Свинцеві акумулятори</t>
   </si>
   <si>
+    <t>https://prom.ua/Akkumulyatornye-bloki</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/litievi-akumuliatori/0:0</t>
   </si>
   <si>
@@ -416,6 +482,9 @@
     <t>Інвертори</t>
   </si>
   <si>
+    <t>https://prom.ua/Invertory</t>
+  </si>
+  <si>
     <t>https://viatec.ua/catalog/sistemi-nakopichennia-energii/0:0</t>
   </si>
   <si>
@@ -441,6 +510,9 @@
   </si>
   <si>
     <t>Зарядні станції</t>
+  </si>
+  <si>
+    <t>https://prom.ua/Zaryadnye-stantsii</t>
   </si>
 </sst>
 </file>
@@ -1419,13 +1491,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="80.1904761904762" style="2" customWidth="1"/>
@@ -1433,10 +1505,11 @@
     <col min="4" max="4" width="70.4285714285714" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.4571428571429" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.9142857142857" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="98.1428571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1455,19 +1528,22 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>8950011</v>
@@ -1475,19 +1551,22 @@
       <c r="F2" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="6">
         <v>8950011</v>
@@ -1495,19 +1574,22 @@
       <c r="F3" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <v>8950011</v>
@@ -1515,19 +1597,22 @@
       <c r="F4" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <v>8950011</v>
@@ -1535,19 +1620,22 @@
       <c r="F5" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>8950011</v>
@@ -1555,19 +1643,22 @@
       <c r="F6" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>8950011</v>
@@ -1575,19 +1666,22 @@
       <c r="F7" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
         <v>8950011</v>
@@ -1595,19 +1689,22 @@
       <c r="F8" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6">
         <v>8950011</v>
@@ -1615,19 +1712,22 @@
       <c r="F9" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>8950011</v>
@@ -1635,19 +1735,22 @@
       <c r="F10" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>8950011</v>
@@ -1655,19 +1758,22 @@
       <c r="F11" s="6">
         <v>301105</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6">
         <v>8950007</v>
@@ -1675,19 +1781,22 @@
       <c r="F12" s="6">
         <v>301101</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6">
         <v>8950007</v>
@@ -1695,19 +1804,22 @@
       <c r="F13" s="6">
         <v>301101</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="6">
         <v>8950007</v>
@@ -1715,19 +1827,22 @@
       <c r="F14" s="6">
         <v>301101</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8">
         <v>83889367</v>
@@ -1735,19 +1850,22 @@
       <c r="F15" s="8">
         <v>70704</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8">
         <v>4321341</v>
@@ -1755,19 +1873,22 @@
       <c r="F16" s="8">
         <v>301109</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8">
         <v>4321341</v>
@@ -1775,19 +1896,22 @@
       <c r="F17" s="8">
         <v>301109</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18" s="8">
         <v>4321341</v>
@@ -1795,19 +1919,22 @@
       <c r="F18" s="8">
         <v>301109</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8">
         <v>4321341</v>
@@ -1815,19 +1942,22 @@
       <c r="F19" s="8">
         <v>301109</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8">
         <v>4328775</v>
@@ -1835,19 +1965,22 @@
       <c r="F20" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8">
         <v>4328775</v>
@@ -1855,19 +1988,22 @@
       <c r="F21" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E22" s="8">
         <v>4328775</v>
@@ -1875,19 +2011,22 @@
       <c r="F22" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E23" s="8">
         <v>4328775</v>
@@ -1895,19 +2034,22 @@
       <c r="F23" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E24" s="8">
         <v>4328775</v>
@@ -1915,19 +2057,22 @@
       <c r="F24" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E25" s="8">
         <v>4328775</v>
@@ -1935,19 +2080,22 @@
       <c r="F25" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E26" s="8">
         <v>4328775</v>
@@ -1955,19 +2103,22 @@
       <c r="F26" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E27" s="8">
         <v>4328775</v>
@@ -1975,19 +2126,22 @@
       <c r="F27" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E28" s="8">
         <v>90718784</v>
@@ -1995,19 +2149,22 @@
       <c r="F28" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E29" s="8">
         <v>90718784</v>
@@ -2015,19 +2172,22 @@
       <c r="F29" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E30" s="8">
         <v>90718784</v>
@@ -2035,19 +2195,22 @@
       <c r="F30" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E31" s="8">
         <v>90718784</v>
@@ -2055,19 +2218,22 @@
       <c r="F31" s="8">
         <v>3029</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E32" s="8">
         <v>4339717</v>
@@ -2075,19 +2241,22 @@
       <c r="F32" s="8">
         <v>50906</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E33" s="8">
         <v>72575633</v>
@@ -2095,19 +2264,22 @@
       <c r="F33" s="8">
         <v>153502</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E34" s="8">
         <v>90906797</v>
@@ -2115,19 +2287,22 @@
       <c r="F34" s="8">
         <v>153729</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E35" s="8">
         <v>90906797</v>
@@ -2135,19 +2310,22 @@
       <c r="F35" s="8">
         <v>153729</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E36" s="8">
         <v>90906797</v>
@@ -2155,19 +2333,22 @@
       <c r="F36" s="8">
         <v>153729</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E37" s="8">
         <v>90906797</v>
@@ -2175,19 +2356,22 @@
       <c r="F37" s="8">
         <v>153729</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E38" s="8">
         <v>139094704</v>
@@ -2195,19 +2379,22 @@
       <c r="F38" s="6">
         <v>50906</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E39" s="8">
         <v>139094708</v>
@@ -2215,19 +2402,22 @@
       <c r="F39" s="8">
         <v>2657</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E40" s="8">
         <v>139094708</v>
@@ -2235,19 +2425,22 @@
       <c r="F40" s="8">
         <v>2657</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E41" s="8">
         <v>90945152</v>
@@ -2255,19 +2448,22 @@
       <c r="F41" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E42" s="8">
         <v>90945152</v>
@@ -2275,19 +2471,22 @@
       <c r="F42" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E43" s="8">
         <v>90945152</v>
@@ -2295,19 +2494,22 @@
       <c r="F43" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E44" s="8">
         <v>90945152</v>
@@ -2315,19 +2517,22 @@
       <c r="F44" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E45" s="8">
         <v>90945152</v>
@@ -2335,19 +2540,22 @@
       <c r="F45" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E46" s="8">
         <v>90945169</v>
@@ -2355,19 +2563,22 @@
       <c r="F46" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E47" s="8">
         <v>90945169</v>
@@ -2375,19 +2586,22 @@
       <c r="F47" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E48" s="8">
         <v>90945169</v>
@@ -2395,19 +2609,22 @@
       <c r="F48" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E49" s="8">
         <v>90945169</v>
@@ -2415,19 +2632,22 @@
       <c r="F49" s="8">
         <v>302306</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E50" s="8">
         <v>90997501</v>
@@ -2435,19 +2655,22 @@
       <c r="F50" s="8">
         <v>301010</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E51" s="8">
         <v>90997501</v>
@@ -2455,19 +2678,22 @@
       <c r="F51" s="8">
         <v>301010</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E52" s="8">
         <v>90997501</v>
@@ -2475,19 +2701,22 @@
       <c r="F52" s="8">
         <v>301010</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E53" s="8">
         <v>127628166</v>
@@ -2495,19 +2724,22 @@
       <c r="F53" s="8">
         <v>3030</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E54" s="8">
         <v>127628170</v>
@@ -2515,19 +2747,22 @@
       <c r="F54" s="8">
         <v>302308</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E55" s="8">
         <v>127628173</v>
@@ -2535,19 +2770,22 @@
       <c r="F55" s="8">
         <v>301311</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E56" s="8">
         <v>127628176</v>
@@ -2555,19 +2793,22 @@
       <c r="F56" s="8">
         <v>301312</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E57" s="8">
         <v>16703618</v>
@@ -2575,19 +2816,22 @@
       <c r="F57" s="8">
         <v>3030</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E58" s="8">
         <v>23295147</v>
@@ -2595,19 +2839,22 @@
       <c r="F58" s="8">
         <v>71903</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E59" s="8">
         <v>90997677</v>
@@ -2615,19 +2862,22 @@
       <c r="F59" s="8">
         <v>71902</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E60" s="8">
         <v>90997694</v>
@@ -2635,19 +2885,22 @@
       <c r="F60" s="8">
         <v>71902</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E61" s="8">
         <v>22818554</v>
@@ -2655,19 +2908,22 @@
       <c r="F61" s="8">
         <v>153501</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E62" s="8">
         <v>127351912</v>
@@ -2675,19 +2931,22 @@
       <c r="F62" s="8">
         <v>14191106</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E63" s="8">
         <v>127351948</v>
@@ -2695,19 +2954,22 @@
       <c r="F63" s="8">
         <v>14191106</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E64" s="8">
         <v>127351950</v>
@@ -2715,19 +2977,22 @@
       <c r="F64" s="8">
         <v>14191103</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E65" s="8">
         <v>127351973</v>
@@ -2735,19 +3000,22 @@
       <c r="F65" s="8">
         <v>5280501</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E66" s="8">
         <v>144038788</v>
@@ -2755,19 +3023,22 @@
       <c r="F66" s="8">
         <v>5280501</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E67" s="8">
         <v>144038804</v>
@@ -2775,65 +3046,77 @@
       <c r="F67" s="8">
         <v>5140401</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E68" s="8">
         <v>144038790</v>
       </c>
       <c r="F68" s="8">
-        <v>5140401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>14191106</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E69" s="8">
         <v>144038805</v>
       </c>
       <c r="F69" s="8">
-        <v>341632</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>14191106</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E70" s="8">
         <v>144038807</v>
       </c>
       <c r="F70" s="8">
         <v>500901</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="5:5">
